--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H2">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I2">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J2">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>2.628074886712</v>
+        <v>2.489813330417777</v>
       </c>
       <c r="R2">
-        <v>23.652673980408</v>
+        <v>22.40831997376</v>
       </c>
       <c r="S2">
-        <v>0.000120682793249195</v>
+        <v>5.685046956230677E-05</v>
       </c>
       <c r="T2">
-        <v>0.000120682793249195</v>
+        <v>5.685046956230676E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H3">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I3">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J3">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>0.8949434934293333</v>
+        <v>1.027866459029333</v>
       </c>
       <c r="R3">
-        <v>8.054491440864</v>
+        <v>9.250798131264</v>
       </c>
       <c r="S3">
-        <v>4.109634817992927E-05</v>
+        <v>2.346950678160202E-05</v>
       </c>
       <c r="T3">
-        <v>4.109634817992927E-05</v>
+        <v>2.346950678160202E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H4">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I4">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J4">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>152.5233243913084</v>
+        <v>683.1830369717084</v>
       </c>
       <c r="R4">
-        <v>1372.709919521776</v>
+        <v>6148.647332745376</v>
       </c>
       <c r="S4">
-        <v>0.007003963591853809</v>
+        <v>0.01559927243313754</v>
       </c>
       <c r="T4">
-        <v>0.007003963591853808</v>
+        <v>0.01559927243313754</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H5">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I5">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J5">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>2.800343938313778</v>
+        <v>4.305153141978667</v>
       </c>
       <c r="R5">
-        <v>25.203095444824</v>
+        <v>38.746378277808</v>
       </c>
       <c r="S5">
-        <v>0.0001285934926142738</v>
+        <v>9.830053308376327E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001285934926142738</v>
+        <v>9.830053308376324E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.507922666666667</v>
+        <v>7.474522666666666</v>
       </c>
       <c r="H6">
-        <v>19.523768</v>
+        <v>22.423568</v>
       </c>
       <c r="I6">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="J6">
-        <v>0.02333320049201848</v>
+        <v>0.02674301976115984</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>349.2737883696356</v>
+        <v>480.2267972956142</v>
       </c>
       <c r="R6">
-        <v>3143.46409532672</v>
+        <v>4322.041175660528</v>
       </c>
       <c r="S6">
-        <v>0.01603886426612127</v>
+        <v>0.01096512681859463</v>
       </c>
       <c r="T6">
-        <v>0.01603886426612127</v>
+        <v>0.01096512681859462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>808.641815</v>
       </c>
       <c r="I7">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J7">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>108.850466075335</v>
+        <v>89.78799317397777</v>
       </c>
       <c r="R7">
-        <v>979.654194678015</v>
+        <v>808.0919385658</v>
       </c>
       <c r="S7">
-        <v>0.004998479441688652</v>
+        <v>0.002050149507449751</v>
       </c>
       <c r="T7">
-        <v>0.004998479441688651</v>
+        <v>0.002050149507449751</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>808.641815</v>
       </c>
       <c r="I8">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J8">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>37.06706261051333</v>
       </c>
       <c r="R8">
-        <v>333.6035634946199</v>
+        <v>333.60356349462</v>
       </c>
       <c r="S8">
-        <v>0.001702142003638332</v>
+        <v>0.0008463606042102428</v>
       </c>
       <c r="T8">
-        <v>0.001702142003638332</v>
+        <v>0.0008463606042102427</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>808.641815</v>
       </c>
       <c r="I9">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J9">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>6317.260984950313</v>
+        <v>24637.04130377531</v>
       </c>
       <c r="R9">
-        <v>56855.34886455282</v>
+        <v>221733.3717339778</v>
       </c>
       <c r="S9">
-        <v>0.2900924571071826</v>
+        <v>0.5625431230664008</v>
       </c>
       <c r="T9">
-        <v>0.2900924571071825</v>
+        <v>0.5625431230664008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>808.641815</v>
       </c>
       <c r="I10">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J10">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>115.9855620545328</v>
+        <v>155.2530288927517</v>
       </c>
       <c r="R10">
-        <v>1043.870058490795</v>
+        <v>1397.277260034765</v>
       </c>
       <c r="S10">
-        <v>0.005326127377911655</v>
+        <v>0.003544927439215823</v>
       </c>
       <c r="T10">
-        <v>0.005326127377911654</v>
+        <v>0.003544927439215822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>808.641815</v>
       </c>
       <c r="I11">
-        <v>0.9664221371420065</v>
+        <v>0.9644104826780983</v>
       </c>
       <c r="J11">
-        <v>0.9664221371420064</v>
+        <v>0.9644104826780981</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>14466.33611704196</v>
+        <v>17318.00527805221</v>
       </c>
       <c r="R11">
-        <v>130197.0250533776</v>
+        <v>155862.0475024699</v>
       </c>
       <c r="S11">
-        <v>0.6643029312115852</v>
+        <v>0.3954259220608217</v>
       </c>
       <c r="T11">
-        <v>0.6643029312115852</v>
+        <v>0.3954259220608216</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H12">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I12">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J12">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>1.139676924957</v>
+        <v>0.01973579275111111</v>
       </c>
       <c r="R12">
-        <v>10.257092324613</v>
+        <v>0.17762213476</v>
       </c>
       <c r="S12">
-        <v>5.233465583529862E-05</v>
+        <v>4.506318089705034E-07</v>
       </c>
       <c r="T12">
-        <v>5.233465583529861E-05</v>
+        <v>4.506318089705033E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H13">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I13">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J13">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>0.388096417556</v>
+        <v>0.008147502129333333</v>
       </c>
       <c r="R13">
-        <v>3.492867758004</v>
+        <v>0.073327519164</v>
       </c>
       <c r="S13">
-        <v>1.782162295202383E-05</v>
+        <v>1.860337544802098E-07</v>
       </c>
       <c r="T13">
-        <v>1.782162295202382E-05</v>
+        <v>1.860337544802097E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H14">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I14">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J14">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>66.14245058442066</v>
+        <v>5.415329199191778</v>
       </c>
       <c r="R14">
-        <v>595.282055259786</v>
+        <v>48.73796279272599</v>
       </c>
       <c r="S14">
-        <v>0.003037301459419744</v>
+        <v>0.0001236494334926166</v>
       </c>
       <c r="T14">
-        <v>0.003037301459419743</v>
+        <v>0.0001236494334926166</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H15">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I15">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J15">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>1.214382202187667</v>
+        <v>0.03412529330366667</v>
       </c>
       <c r="R15">
-        <v>10.929439819689</v>
+        <v>0.307127639733</v>
       </c>
       <c r="S15">
-        <v>5.576516748937552E-05</v>
+        <v>7.791905218610765E-07</v>
       </c>
       <c r="T15">
-        <v>5.576516748937551E-05</v>
+        <v>7.791905218610762E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.822191</v>
+        <v>0.05924766666666666</v>
       </c>
       <c r="H16">
-        <v>8.466573</v>
+        <v>0.177743</v>
       </c>
       <c r="I16">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="J16">
-        <v>0.01011855115720031</v>
+        <v>0.0002119816329590292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>151.4642064082134</v>
+        <v>3.806573139105889</v>
       </c>
       <c r="R16">
-        <v>1363.17785767392</v>
+        <v>34.259158251953</v>
       </c>
       <c r="S16">
-        <v>0.006955328251503869</v>
+        <v>8.691634338110085E-05</v>
       </c>
       <c r="T16">
-        <v>0.006955328251503868</v>
+        <v>8.691634338110082E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H17">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I17">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J17">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>0.014204210898</v>
+        <v>0.7737923520444445</v>
       </c>
       <c r="R17">
-        <v>0.127837898082</v>
+        <v>6.9641311684</v>
       </c>
       <c r="S17">
-        <v>6.522659821219733E-07</v>
+        <v>1.766817536882056E-05</v>
       </c>
       <c r="T17">
-        <v>6.522659821219732E-07</v>
+        <v>1.766817536882055E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H18">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I18">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J18">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>0.004836987784</v>
+        <v>0.3194437089733334</v>
       </c>
       <c r="R18">
-        <v>0.043532890056</v>
+        <v>2.87499338076</v>
       </c>
       <c r="S18">
-        <v>2.221174136387247E-07</v>
+        <v>7.293930284649744E-06</v>
       </c>
       <c r="T18">
-        <v>2.221174136387247E-07</v>
+        <v>7.293930284649743E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H19">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I19">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J19">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>0.8243575848893334</v>
+        <v>212.3218646943711</v>
       </c>
       <c r="R19">
-        <v>7.419218264004</v>
+        <v>1910.89678224934</v>
       </c>
       <c r="S19">
-        <v>3.785500043534618E-05</v>
+        <v>0.004847993043797455</v>
       </c>
       <c r="T19">
-        <v>3.785500043534617E-05</v>
+        <v>0.004847993043797454</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.035174</v>
+        <v>2.322956666666667</v>
       </c>
       <c r="H20">
-        <v>0.105522</v>
+        <v>6.96887</v>
       </c>
       <c r="I20">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757393</v>
       </c>
       <c r="J20">
-        <v>0.0001261112087748008</v>
+        <v>0.008311283383757391</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>0.01513529012733334</v>
+        <v>1.337969611996667</v>
       </c>
       <c r="R20">
-        <v>0.136217611146</v>
+        <v>12.04172650797</v>
       </c>
       <c r="S20">
-        <v>6.950217052181425E-07</v>
+        <v>3.055016204341099E-05</v>
       </c>
       <c r="T20">
-        <v>6.950217052181424E-07</v>
+        <v>3.055016204341099E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.322956666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.96887</v>
+      </c>
+      <c r="I21">
+        <v>0.008311283383757393</v>
+      </c>
+      <c r="J21">
+        <v>0.008311283383757391</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>64.24849033333334</v>
+      </c>
+      <c r="N21">
+        <v>192.745471</v>
+      </c>
+      <c r="O21">
+        <v>0.4100182745450386</v>
+      </c>
+      <c r="P21">
+        <v>0.4100182745450385</v>
+      </c>
+      <c r="Q21">
+        <v>149.2464589430856</v>
+      </c>
+      <c r="R21">
+        <v>1343.21813048777</v>
+      </c>
+      <c r="S21">
+        <v>0.003407778072263056</v>
+      </c>
+      <c r="T21">
+        <v>0.003407778072263055</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H22">
+        <v>0.271025</v>
+      </c>
+      <c r="I22">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J22">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3331066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.99932</v>
+      </c>
+      <c r="O22">
+        <v>0.002125805913843485</v>
+      </c>
+      <c r="P22">
+        <v>0.002125805913843485</v>
+      </c>
+      <c r="Q22">
+        <v>0.03009341144444444</v>
+      </c>
+      <c r="R22">
+        <v>0.270840703</v>
+      </c>
+      <c r="S22">
+        <v>6.871296536360401E-07</v>
+      </c>
+      <c r="T22">
+        <v>6.871296536360401E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H23">
+        <v>0.271025</v>
+      </c>
+      <c r="I23">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J23">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.137516</v>
+      </c>
+      <c r="N23">
+        <v>0.412548</v>
+      </c>
+      <c r="O23">
+        <v>0.0008775937418887864</v>
+      </c>
+      <c r="P23">
+        <v>0.0008775937418887864</v>
+      </c>
+      <c r="Q23">
+        <v>0.01242342463333333</v>
+      </c>
+      <c r="R23">
+        <v>0.1118108217</v>
+      </c>
+      <c r="S23">
+        <v>2.836668578115529E-07</v>
+      </c>
+      <c r="T23">
+        <v>2.836668578115529E-07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H24">
+        <v>0.271025</v>
+      </c>
+      <c r="I24">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J24">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>91.40156066666667</v>
+      </c>
+      <c r="N24">
+        <v>274.204682</v>
+      </c>
+      <c r="O24">
+        <v>0.5833025803538128</v>
+      </c>
+      <c r="P24">
+        <v>0.5833025803538128</v>
+      </c>
+      <c r="Q24">
+        <v>8.257369326561109</v>
+      </c>
+      <c r="R24">
+        <v>74.31632393904998</v>
+      </c>
+      <c r="S24">
+        <v>0.0001885423769843899</v>
+      </c>
+      <c r="T24">
+        <v>0.0001885423769843899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.035174</v>
-      </c>
-      <c r="H21">
-        <v>0.105522</v>
-      </c>
-      <c r="I21">
-        <v>0.0001261112087748008</v>
-      </c>
-      <c r="J21">
-        <v>0.0001261112087748008</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>53.66901333333334</v>
-      </c>
-      <c r="N21">
-        <v>161.00704</v>
-      </c>
-      <c r="O21">
-        <v>0.6873838105324488</v>
-      </c>
-      <c r="P21">
-        <v>0.6873838105324488</v>
-      </c>
-      <c r="Q21">
-        <v>1.887753874986667</v>
-      </c>
-      <c r="R21">
-        <v>16.98978487488</v>
-      </c>
-      <c r="S21">
-        <v>8.668680323847576E-05</v>
-      </c>
-      <c r="T21">
-        <v>8.668680323847574E-05</v>
+      <c r="G25">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H25">
+        <v>0.271025</v>
+      </c>
+      <c r="I25">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J25">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5759770000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.727931</v>
+      </c>
+      <c r="O25">
+        <v>0.00367574544541637</v>
+      </c>
+      <c r="P25">
+        <v>0.00367574544541637</v>
+      </c>
+      <c r="Q25">
+        <v>0.05203472214166666</v>
+      </c>
+      <c r="R25">
+        <v>0.468312499275</v>
+      </c>
+      <c r="S25">
+        <v>1.188120551512005E-06</v>
+      </c>
+      <c r="T25">
+        <v>1.188120551512004E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.09034166666666665</v>
+      </c>
+      <c r="H26">
+        <v>0.271025</v>
+      </c>
+      <c r="I26">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="J26">
+        <v>0.00032323254402548</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>64.24849033333334</v>
+      </c>
+      <c r="N26">
+        <v>192.745471</v>
+      </c>
+      <c r="O26">
+        <v>0.4100182745450386</v>
+      </c>
+      <c r="P26">
+        <v>0.4100182745450385</v>
+      </c>
+      <c r="Q26">
+        <v>5.804315697530555</v>
+      </c>
+      <c r="R26">
+        <v>52.23884127777499</v>
+      </c>
+      <c r="S26">
+        <v>0.0001325312499781305</v>
+      </c>
+      <c r="T26">
+        <v>0.0001325312499781305</v>
       </c>
     </row>
   </sheetData>
